--- a/tests/Templates/9_plaindata.xlsx
+++ b/tests/Templates/9_plaindata.xlsx
@@ -1739,10 +1739,10 @@
         <v>2121</v>
       </c>
       <c r="H47" s="19">
-        <v>873.27000000000021</v>
+        <v>873.27</v>
       </c>
       <c r="I47" s="19">
-        <v>19627.879999999997</v>
+        <v>19627.88</v>
       </c>
     </row>
   </sheetData>
